--- a/data/trans_orig/P42B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P42B-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CEECCD6-50B2-4403-BB83-C80974686EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A26841E-90DC-4FE5-A29C-80CBFEB241A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5EE5B240-D8D8-476E-8774-62432FE18328}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{667CAC3B-8E97-40A2-A66C-77F133360654}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="280">
   <si>
     <t>Población según el motivo de última consulta al ginecólogo en 2007 (Tasa respuesta: 9,83%)</t>
   </si>
@@ -83,7 +83,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>2,49%</t>
+    <t>2,82%</t>
   </si>
   <si>
     <t>Para realizar detección precoz de cáncer de útero</t>
@@ -92,10 +92,10 @@
     <t>3,95%</t>
   </si>
   <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
   </si>
   <si>
     <t>Para realizar detección de cáncer de mama</t>
@@ -104,625 +104,622 @@
     <t>10,13%</t>
   </si>
   <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>Para revisiones periódicas</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>Para realizar orientación/planificación familiar</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>Por algún problema ginecológico</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el motivo de última consulta al ginecólogo en 2012 (Tasa respuesta: 38,79%)</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
     <t>6,6%</t>
   </si>
   <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>Para revisiones periódicas</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>Para realizar orientación/planificación familiar</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>Por algún problema ginecológico</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>69,98%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>Población según el motivo de última consulta al ginecólogo en 2015 (Tasa respuesta: 39,99%)</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>Población según el motivo de última consulta al ginecólogo en 2023 (Tasa respuesta: 36,17%)</t>
   </si>
   <si>
     <t>6,39%</t>
   </si>
   <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el motivo de última consulta al ginecólogo en 2012 (Tasa respuesta: 38,79%)</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>Población según el motivo de última consulta al ginecólogo en 2015 (Tasa respuesta: 39,99%)</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>67,27%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>Población según el motivo de última consulta al ginecólogo en 2023 (Tasa respuesta: 36,17%)</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
   </si>
   <si>
     <t>0,28%</t>
   </si>
   <si>
-    <t>0,97%</t>
-  </si>
-  <si>
     <t>9,67%</t>
   </si>
   <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
   </si>
   <si>
     <t>63,07%</t>
   </si>
   <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>66,32%</t>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>66,6%</t>
   </si>
   <si>
     <t>2,18%</t>
@@ -734,145 +731,154 @@
     <t>18,41%</t>
   </si>
   <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
   </si>
   <si>
     <t>6,78%</t>
   </si>
   <si>
-    <t>5,46%</t>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
   </si>
   <si>
     <t>0,84%</t>
   </si>
   <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
   </si>
   <si>
     <t>1,92%</t>
   </si>
   <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
   </si>
   <si>
     <t>69,49%</t>
   </si>
   <si>
-    <t>66,44%</t>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
   </si>
   <si>
     <t>3,53%</t>
   </si>
   <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
   </si>
   <si>
     <t>17,44%</t>
   </si>
   <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
   </si>
   <si>
     <t>0,35%</t>
   </si>
   <si>
+    <t>1,15%</t>
+  </si>
+  <si>
     <t>1,28%</t>
   </si>
   <si>
-    <t>0,66%</t>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
   </si>
   <si>
     <t>80,68%</t>
   </si>
   <si>
-    <t>84,03%</t>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
   </si>
   <si>
     <t>2,87%</t>
   </si>
   <si>
-    <t>4,56%</t>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
   </si>
   <si>
     <t>10,34%</t>
   </si>
   <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
   </si>
   <si>
     <t>3,55%</t>
   </si>
   <si>
-    <t>4,25%</t>
+    <t>4,2%</t>
   </si>
   <si>
     <t>70,33%</t>
   </si>
   <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
   </si>
   <si>
     <t>3,09%</t>
   </si>
   <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
   </si>
   <si>
     <t>16,2%</t>
   </si>
   <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
   </si>
 </sst>
 </file>
@@ -1284,7 +1290,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37CDE9A6-D2C2-4A85-B4E6-63FBB7CD8AB0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC860EAD-2C01-4B1B-8D64-C55845AAA04E}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2310,10 +2316,10 @@
         <v>61</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M22" s="7">
         <v>8</v>
@@ -2325,10 +2331,10 @@
         <v>61</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2356,13 +2362,13 @@
         <v>12433</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M23" s="7">
         <v>12</v>
@@ -2371,13 +2377,13 @@
         <v>12433</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2456,13 +2462,13 @@
         <v>2823</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -2471,13 +2477,13 @@
         <v>2823</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2505,13 +2511,13 @@
         <v>13836</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="M26" s="7">
         <v>14</v>
@@ -2520,13 +2526,13 @@
         <v>13836</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2554,13 +2560,13 @@
         <v>30624</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M27" s="7">
         <v>31</v>
@@ -2569,13 +2575,13 @@
         <v>30624</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2603,13 +2609,13 @@
         <v>484313</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M28" s="7">
         <v>474</v>
@@ -2618,13 +2624,13 @@
         <v>484313</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2652,13 +2658,13 @@
         <v>30820</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M29" s="7">
         <v>27</v>
@@ -2667,13 +2673,13 @@
         <v>30820</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2701,13 +2707,13 @@
         <v>92098</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M30" s="7">
         <v>91</v>
@@ -2716,13 +2722,13 @@
         <v>92098</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2776,7 +2782,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2795,7 +2801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B00F7A5-3FFE-4311-A34D-AEEBB84E564F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF5AC23-E689-4787-B969-A9470C1E3AF3}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2812,7 +2818,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2932,13 +2938,13 @@
         <v>15272</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
@@ -2947,13 +2953,13 @@
         <v>15272</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2981,13 +2987,13 @@
         <v>12647</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -2996,13 +3002,13 @@
         <v>12647</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3030,13 +3036,13 @@
         <v>18625</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M6" s="7">
         <v>18</v>
@@ -3045,13 +3051,13 @@
         <v>18625</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3079,13 +3085,13 @@
         <v>681689</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M7" s="7">
         <v>637</v>
@@ -3094,13 +3100,13 @@
         <v>681689</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3128,13 +3134,13 @@
         <v>26551</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M8" s="7">
         <v>24</v>
@@ -3143,13 +3149,13 @@
         <v>26551</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3177,13 +3183,13 @@
         <v>210814</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M9" s="7">
         <v>197</v>
@@ -3192,13 +3198,13 @@
         <v>210814</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3277,13 +3283,13 @@
         <v>25281</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="M11" s="7">
         <v>24</v>
@@ -3292,13 +3298,13 @@
         <v>25281</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3326,13 +3332,13 @@
         <v>9680</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M12" s="7">
         <v>10</v>
@@ -3341,13 +3347,13 @@
         <v>9680</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3375,13 +3381,13 @@
         <v>14493</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -3390,13 +3396,13 @@
         <v>14493</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3424,13 +3430,13 @@
         <v>987348</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M14" s="7">
         <v>899</v>
@@ -3439,13 +3445,13 @@
         <v>987348</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3473,13 +3479,13 @@
         <v>109024</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M15" s="7">
         <v>103</v>
@@ -3488,13 +3494,13 @@
         <v>109024</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3522,13 +3528,13 @@
         <v>219301</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M16" s="7">
         <v>207</v>
@@ -3537,13 +3543,13 @@
         <v>219301</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3622,13 +3628,13 @@
         <v>3177</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M18" s="7">
         <v>3</v>
@@ -3637,13 +3643,13 @@
         <v>3177</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3671,13 +3677,13 @@
         <v>1712</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -3686,13 +3692,13 @@
         <v>1712</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3720,13 +3726,13 @@
         <v>9852</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>127</v>
+        <v>57</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -3735,13 +3741,13 @@
         <v>9852</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>127</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3772,10 +3778,10 @@
         <v>44</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M21" s="7">
         <v>273</v>
@@ -3787,10 +3793,10 @@
         <v>44</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3818,13 +3824,13 @@
         <v>26111</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M22" s="7">
         <v>23</v>
@@ -3833,13 +3839,13 @@
         <v>26111</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3867,13 +3873,13 @@
         <v>60001</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M23" s="7">
         <v>55</v>
@@ -3882,13 +3888,13 @@
         <v>60001</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3967,13 +3973,13 @@
         <v>43730</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M25" s="7">
         <v>41</v>
@@ -3982,13 +3988,13 @@
         <v>43730</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4016,13 +4022,13 @@
         <v>24039</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M26" s="7">
         <v>23</v>
@@ -4031,13 +4037,13 @@
         <v>24039</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4065,13 +4071,13 @@
         <v>42969</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="M27" s="7">
         <v>39</v>
@@ -4080,13 +4086,13 @@
         <v>42969</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4114,13 +4120,13 @@
         <v>1974757</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M28" s="7">
         <v>1809</v>
@@ -4129,13 +4135,13 @@
         <v>1974757</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4163,13 +4169,13 @@
         <v>161686</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M29" s="7">
         <v>150</v>
@@ -4178,13 +4184,13 @@
         <v>161686</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4212,13 +4218,13 @@
         <v>490116</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M30" s="7">
         <v>459</v>
@@ -4227,13 +4233,13 @@
         <v>490116</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4287,7 +4293,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -4306,7 +4312,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B7055D-ED8D-484E-A167-2A0A61303E8B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{722516D5-57B9-4694-829F-4A9363645331}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4323,7 +4329,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4443,13 +4449,13 @@
         <v>19095</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>152</v>
+        <v>29</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>153</v>
+        <v>42</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
@@ -4458,13 +4464,13 @@
         <v>19095</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>152</v>
+        <v>29</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>153</v>
+        <v>42</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4492,13 +4498,13 @@
         <v>3049</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>141</v>
+        <v>90</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -4507,13 +4513,13 @@
         <v>3049</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>141</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4541,13 +4547,13 @@
         <v>43925</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M6" s="7">
         <v>39</v>
@@ -4556,13 +4562,13 @@
         <v>43925</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4590,13 +4596,13 @@
         <v>464221</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M7" s="7">
         <v>418</v>
@@ -4605,13 +4611,13 @@
         <v>464221</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4639,13 +4645,13 @@
         <v>27627</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>164</v>
+        <v>99</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M8" s="7">
         <v>27</v>
@@ -4654,13 +4660,13 @@
         <v>27627</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>164</v>
+        <v>99</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4688,13 +4694,13 @@
         <v>132185</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M9" s="7">
         <v>123</v>
@@ -4703,13 +4709,13 @@
         <v>132185</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4788,13 +4794,13 @@
         <v>36940</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M11" s="7">
         <v>36</v>
@@ -4803,13 +4809,13 @@
         <v>36940</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4837,13 +4843,13 @@
         <v>12033</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="M12" s="7">
         <v>12</v>
@@ -4852,13 +4858,13 @@
         <v>12033</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4886,13 +4892,13 @@
         <v>37303</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>175</v>
+        <v>55</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M13" s="7">
         <v>36</v>
@@ -4901,13 +4907,13 @@
         <v>37303</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>175</v>
+        <v>55</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4935,10 +4941,10 @@
         <v>1220516</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>178</v>
+        <v>26</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>179</v>
@@ -4950,10 +4956,10 @@
         <v>1220516</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>178</v>
+        <v>26</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>179</v>
@@ -5139,7 +5145,7 @@
         <v>187</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="M18" s="7">
         <v>14</v>
@@ -5154,7 +5160,7 @@
         <v>187</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>188</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5188,7 +5194,7 @@
         <v>54</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -5203,7 +5209,7 @@
         <v>54</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5231,13 +5237,13 @@
         <v>7549</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -5246,13 +5252,13 @@
         <v>7549</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5280,13 +5286,13 @@
         <v>386598</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M21" s="7">
         <v>369</v>
@@ -5295,13 +5301,13 @@
         <v>386598</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5329,13 +5335,13 @@
         <v>22673</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M22" s="7">
         <v>22</v>
@@ -5344,13 +5350,13 @@
         <v>22673</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5378,13 +5384,13 @@
         <v>50886</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M23" s="7">
         <v>50</v>
@@ -5393,13 +5399,13 @@
         <v>50886</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5478,13 +5484,13 @@
         <v>70309</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M25" s="7">
         <v>67</v>
@@ -5493,13 +5499,13 @@
         <v>70309</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5527,13 +5533,13 @@
         <v>15082</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M26" s="7">
         <v>15</v>
@@ -5542,13 +5548,13 @@
         <v>15082</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5576,13 +5582,13 @@
         <v>88776</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M27" s="7">
         <v>81</v>
@@ -5591,13 +5597,13 @@
         <v>88776</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5625,13 +5631,13 @@
         <v>2071335</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M28" s="7">
         <v>1948</v>
@@ -5640,13 +5646,13 @@
         <v>2071335</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5674,13 +5680,13 @@
         <v>147136</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M29" s="7">
         <v>146</v>
@@ -5689,13 +5695,13 @@
         <v>147136</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5723,13 +5729,13 @@
         <v>377453</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M30" s="7">
         <v>360</v>
@@ -5738,13 +5744,13 @@
         <v>377453</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5798,7 +5804,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -5817,7 +5823,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D414E2-7157-4636-ABB1-7D2E9FFA7CB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF339A98-313C-4685-8C24-07B1F47AF2C9}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5834,7 +5840,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5954,7 +5960,7 @@
         <v>30424</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>73</v>
+        <v>217</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>218</v>
@@ -5969,7 +5975,7 @@
         <v>30424</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>73</v>
+        <v>217</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>218</v>
@@ -6009,7 +6015,7 @@
         <v>13</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>221</v>
+        <v>128</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -6024,7 +6030,7 @@
         <v>13</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>221</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6052,13 +6058,13 @@
         <v>46034</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M6" s="7">
         <v>79</v>
@@ -6067,13 +6073,13 @@
         <v>46034</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6101,13 +6107,13 @@
         <v>300273</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M7" s="7">
         <v>538</v>
@@ -6116,13 +6122,13 @@
         <v>300273</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6150,13 +6156,13 @@
         <v>10359</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M8" s="7">
         <v>15</v>
@@ -6165,13 +6171,13 @@
         <v>10359</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6199,13 +6205,13 @@
         <v>87625</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M9" s="7">
         <v>142</v>
@@ -6214,13 +6220,13 @@
         <v>87625</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6299,13 +6305,13 @@
         <v>80634</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="M11" s="7">
         <v>105</v>
@@ -6314,13 +6320,13 @@
         <v>80634</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6452,7 +6458,7 @@
         <v>242</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>143</v>
+        <v>243</v>
       </c>
       <c r="M14" s="7">
         <v>1252</v>
@@ -6467,7 +6473,7 @@
         <v>242</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>143</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6495,13 +6501,13 @@
         <v>41960</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M15" s="7">
         <v>44</v>
@@ -6510,13 +6516,13 @@
         <v>41960</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6544,13 +6550,13 @@
         <v>207291</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M16" s="7">
         <v>261</v>
@@ -6559,13 +6565,13 @@
         <v>207291</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6644,13 +6650,13 @@
         <v>19247</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>249</v>
+        <v>160</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M18" s="7">
         <v>22</v>
@@ -6659,13 +6665,13 @@
         <v>19247</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>249</v>
+        <v>160</v>
       </c>
       <c r="P18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6693,13 +6699,13 @@
         <v>1521</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -6708,13 +6714,13 @@
         <v>1521</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6748,7 +6754,7 @@
         <v>254</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>199</v>
+        <v>255</v>
       </c>
       <c r="M20" s="7">
         <v>9</v>
@@ -6763,7 +6769,7 @@
         <v>254</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>199</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6791,13 +6797,13 @@
         <v>347523</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>210</v>
+        <v>257</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M21" s="7">
         <v>521</v>
@@ -6806,13 +6812,13 @@
         <v>347523</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>210</v>
+        <v>257</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6840,13 +6846,13 @@
         <v>12373</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>170</v>
+        <v>260</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="M22" s="7">
         <v>17</v>
@@ -6855,13 +6861,13 @@
         <v>12373</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>170</v>
+        <v>260</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6889,13 +6895,13 @@
         <v>44542</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="M23" s="7">
         <v>59</v>
@@ -6904,13 +6910,13 @@
         <v>44542</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6989,13 +6995,13 @@
         <v>130305</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>262</v>
+        <v>212</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M25" s="7">
         <v>164</v>
@@ -7004,13 +7010,13 @@
         <v>130305</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>262</v>
+        <v>212</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7038,13 +7044,13 @@
         <v>12868</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>107</v>
+        <v>267</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M26" s="7">
         <v>17</v>
@@ -7053,13 +7059,13 @@
         <v>12868</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>107</v>
+        <v>267</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7087,13 +7093,13 @@
         <v>74381</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M27" s="7">
         <v>126</v>
@@ -7102,13 +7108,13 @@
         <v>74381</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7136,13 +7142,13 @@
         <v>1473743</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M28" s="7">
         <v>2311</v>
@@ -7151,13 +7157,13 @@
         <v>1473743</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7185,13 +7191,13 @@
         <v>64691</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M29" s="7">
         <v>76</v>
@@ -7200,13 +7206,13 @@
         <v>64691</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7234,13 +7240,13 @@
         <v>339458</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M30" s="7">
         <v>462</v>
@@ -7249,13 +7255,13 @@
         <v>339458</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7309,7 +7315,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P42B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P42B-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A26841E-90DC-4FE5-A29C-80CBFEB241A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F1DC811-6459-4B0D-B6F4-410B772E73E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{667CAC3B-8E97-40A2-A66C-77F133360654}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A6A2E4A2-8E7C-4680-8F22-B6D447DCB053}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="278">
   <si>
     <t>Población según el motivo de última consulta al ginecólogo en 2007 (Tasa respuesta: 9,83%)</t>
   </si>
@@ -83,757 +83,751 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>Para realizar detección precoz de cáncer de útero</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>Para realizar detección de cáncer de mama</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>Para revisiones periódicas</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>Para realizar orientación/planificación familiar</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>Por algún problema ginecológico</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el motivo de última consulta al ginecólogo en 2012 (Tasa respuesta: 38,79%)</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>Población según el motivo de última consulta al ginecólogo en 2016 (Tasa respuesta: 39,99%)</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
     <t>2,82%</t>
   </si>
   <si>
-    <t>Para realizar detección precoz de cáncer de útero</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>Para realizar detección de cáncer de mama</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>Para revisiones periódicas</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>Para realizar orientación/planificación familiar</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>Por algún problema ginecológico</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>Población según el motivo de última consulta al ginecólogo en 2023 (Tasa respuesta: 36,17%)</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
   </si>
   <si>
     <t>1,23%</t>
   </si>
   <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el motivo de última consulta al ginecólogo en 2012 (Tasa respuesta: 38,79%)</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>Población según el motivo de última consulta al ginecólogo en 2015 (Tasa respuesta: 39,99%)</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
   </si>
   <si>
     <t>4,47%</t>
   </si>
   <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>67,27%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>70,82%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
   </si>
   <si>
     <t>6,22%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>Población según el motivo de última consulta al ginecólogo en 2023 (Tasa respuesta: 36,17%)</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
   </si>
   <si>
     <t>5,19%</t>
@@ -1290,7 +1284,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC860EAD-2C01-4B1B-8D64-C55845AAA04E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BED9DD1-74B0-49ED-8F6E-4C5EB5AB98E4}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1824,10 +1818,10 @@
         <v>38</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
@@ -1839,10 +1833,10 @@
         <v>38</v>
       </c>
       <c r="P12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1870,13 +1864,13 @@
         <v>10672</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -1885,13 +1879,13 @@
         <v>10672</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1919,13 +1913,13 @@
         <v>253131</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M14" s="7">
         <v>245</v>
@@ -1934,13 +1928,13 @@
         <v>253131</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1968,13 +1962,13 @@
         <v>19668</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="M15" s="7">
         <v>18</v>
@@ -1983,13 +1977,13 @@
         <v>19668</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2017,13 +2011,13 @@
         <v>46434</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="M16" s="7">
         <v>45</v>
@@ -2032,13 +2026,13 @@
         <v>46434</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2092,7 +2086,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -2120,10 +2114,10 @@
         <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -2135,10 +2129,10 @@
         <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2166,13 +2160,13 @@
         <v>1151</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -2181,13 +2175,13 @@
         <v>1151</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2218,10 +2212,10 @@
         <v>13</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2233,10 +2227,10 @@
         <v>13</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2264,13 +2258,13 @@
         <v>97114</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>94</v>
@@ -2279,13 +2273,13 @@
         <v>97114</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2313,13 +2307,13 @@
         <v>10117</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M22" s="7">
         <v>8</v>
@@ -2328,13 +2322,13 @@
         <v>10117</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2362,13 +2356,13 @@
         <v>12433</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M23" s="7">
         <v>12</v>
@@ -2377,13 +2371,13 @@
         <v>12433</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2462,13 +2456,13 @@
         <v>2823</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -2477,13 +2471,13 @@
         <v>2823</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2511,13 +2505,13 @@
         <v>13836</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M26" s="7">
         <v>14</v>
@@ -2526,13 +2520,13 @@
         <v>13836</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2560,13 +2554,13 @@
         <v>30624</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M27" s="7">
         <v>31</v>
@@ -2575,13 +2569,13 @@
         <v>30624</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2609,13 +2603,13 @@
         <v>484313</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="M28" s="7">
         <v>474</v>
@@ -2624,13 +2618,13 @@
         <v>484313</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2658,13 +2652,13 @@
         <v>30820</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M29" s="7">
         <v>27</v>
@@ -2673,13 +2667,13 @@
         <v>30820</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2707,13 +2701,13 @@
         <v>92098</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M30" s="7">
         <v>91</v>
@@ -2722,13 +2716,13 @@
         <v>92098</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2782,7 +2776,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2801,7 +2795,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF5AC23-E689-4787-B969-A9470C1E3AF3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89754099-6612-4DAB-BB2D-1751059B9A19}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2818,7 +2812,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2938,13 +2932,13 @@
         <v>15272</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
@@ -2953,13 +2947,13 @@
         <v>15272</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2987,13 +2981,13 @@
         <v>12647</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -3002,13 +2996,13 @@
         <v>12647</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3036,13 +3030,13 @@
         <v>18625</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M6" s="7">
         <v>18</v>
@@ -3051,13 +3045,13 @@
         <v>18625</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3085,13 +3079,13 @@
         <v>681689</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M7" s="7">
         <v>637</v>
@@ -3100,13 +3094,13 @@
         <v>681689</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3134,13 +3128,13 @@
         <v>26551</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M8" s="7">
         <v>24</v>
@@ -3149,13 +3143,13 @@
         <v>26551</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3183,13 +3177,13 @@
         <v>210814</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M9" s="7">
         <v>197</v>
@@ -3198,13 +3192,13 @@
         <v>210814</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3283,13 +3277,13 @@
         <v>25281</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="M11" s="7">
         <v>24</v>
@@ -3298,13 +3292,13 @@
         <v>25281</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3332,13 +3326,13 @@
         <v>9680</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M12" s="7">
         <v>10</v>
@@ -3347,13 +3341,13 @@
         <v>9680</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3381,13 +3375,13 @@
         <v>14493</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -3396,13 +3390,13 @@
         <v>14493</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3430,13 +3424,13 @@
         <v>987348</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M14" s="7">
         <v>899</v>
@@ -3445,13 +3439,13 @@
         <v>987348</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3479,13 +3473,13 @@
         <v>109024</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M15" s="7">
         <v>103</v>
@@ -3494,13 +3488,13 @@
         <v>109024</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3528,13 +3522,13 @@
         <v>219301</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M16" s="7">
         <v>207</v>
@@ -3543,13 +3537,13 @@
         <v>219301</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3603,7 +3597,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -3628,13 +3622,13 @@
         <v>3177</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M18" s="7">
         <v>3</v>
@@ -3643,13 +3637,13 @@
         <v>3177</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3677,13 +3671,13 @@
         <v>1712</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -3692,13 +3686,13 @@
         <v>1712</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3726,13 +3720,13 @@
         <v>9852</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -3741,13 +3735,13 @@
         <v>9852</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3775,7 +3769,7 @@
         <v>305719</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>129</v>
@@ -3790,7 +3784,7 @@
         <v>305719</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>129</v>
@@ -4293,7 +4287,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -4312,7 +4306,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{722516D5-57B9-4694-829F-4A9363645331}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92CE312F-1101-4BBD-A5ED-F669C89544FF}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4449,13 +4443,13 @@
         <v>19095</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>42</v>
+        <v>156</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
@@ -4464,13 +4458,13 @@
         <v>19095</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>42</v>
+        <v>156</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4498,13 +4492,13 @@
         <v>3049</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -4513,13 +4507,13 @@
         <v>3049</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>90</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4547,13 +4541,13 @@
         <v>43925</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M6" s="7">
         <v>39</v>
@@ -4562,13 +4556,13 @@
         <v>43925</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4596,13 +4590,13 @@
         <v>464221</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M7" s="7">
         <v>418</v>
@@ -4611,13 +4605,13 @@
         <v>464221</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4645,13 +4639,13 @@
         <v>27627</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>165</v>
+        <v>99</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>99</v>
+        <v>167</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M8" s="7">
         <v>27</v>
@@ -4660,13 +4654,13 @@
         <v>27627</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>165</v>
+        <v>99</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>99</v>
+        <v>167</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4694,13 +4688,13 @@
         <v>132185</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M9" s="7">
         <v>123</v>
@@ -4709,13 +4703,13 @@
         <v>132185</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4794,13 +4788,13 @@
         <v>36940</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>172</v>
+        <v>79</v>
       </c>
       <c r="M11" s="7">
         <v>36</v>
@@ -4809,13 +4803,13 @@
         <v>36940</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>172</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4843,10 +4837,10 @@
         <v>12033</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>174</v>
+        <v>124</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>175</v>
@@ -4858,10 +4852,10 @@
         <v>12033</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>174</v>
+        <v>124</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>175</v>
@@ -4895,10 +4889,10 @@
         <v>176</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>55</v>
+        <v>177</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M13" s="7">
         <v>36</v>
@@ -4910,10 +4904,10 @@
         <v>176</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>55</v>
+        <v>177</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4941,13 +4935,13 @@
         <v>1220516</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>26</v>
+        <v>180</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M14" s="7">
         <v>1161</v>
@@ -4956,13 +4950,13 @@
         <v>1220516</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>26</v>
+        <v>180</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4990,13 +4984,13 @@
         <v>96836</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M15" s="7">
         <v>97</v>
@@ -5005,13 +4999,13 @@
         <v>96836</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5039,13 +5033,13 @@
         <v>194382</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M16" s="7">
         <v>187</v>
@@ -5054,13 +5048,13 @@
         <v>194382</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5114,7 +5108,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -5139,13 +5133,13 @@
         <v>14274</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>186</v>
+        <v>39</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>187</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="M18" s="7">
         <v>14</v>
@@ -5154,13 +5148,13 @@
         <v>14274</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>186</v>
+        <v>39</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>187</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>150</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5191,10 +5185,10 @@
         <v>13</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -5206,10 +5200,10 @@
         <v>13</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5240,10 +5234,10 @@
         <v>143</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>36</v>
+        <v>189</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>188</v>
+        <v>73</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -5255,10 +5249,10 @@
         <v>143</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>36</v>
+        <v>189</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>188</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5286,13 +5280,13 @@
         <v>386598</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M21" s="7">
         <v>369</v>
@@ -5301,13 +5295,13 @@
         <v>386598</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5335,13 +5329,13 @@
         <v>22673</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M22" s="7">
         <v>22</v>
@@ -5350,13 +5344,13 @@
         <v>22673</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5384,13 +5378,13 @@
         <v>50886</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M23" s="7">
         <v>50</v>
@@ -5399,13 +5393,13 @@
         <v>50886</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5484,13 +5478,13 @@
         <v>70309</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="M25" s="7">
         <v>67</v>
@@ -5499,13 +5493,13 @@
         <v>70309</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>200</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5539,7 +5533,7 @@
         <v>202</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>203</v>
+        <v>87</v>
       </c>
       <c r="M26" s="7">
         <v>15</v>
@@ -5554,7 +5548,7 @@
         <v>202</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>203</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5582,13 +5576,13 @@
         <v>88776</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M27" s="7">
         <v>81</v>
@@ -5597,13 +5591,13 @@
         <v>88776</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5631,13 +5625,13 @@
         <v>2071335</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M28" s="7">
         <v>1948</v>
@@ -5646,13 +5640,13 @@
         <v>2071335</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5680,13 +5674,13 @@
         <v>147136</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M29" s="7">
         <v>146</v>
@@ -5695,13 +5689,13 @@
         <v>147136</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5729,13 +5723,13 @@
         <v>377453</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M30" s="7">
         <v>360</v>
@@ -5744,13 +5738,13 @@
         <v>377453</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5804,7 +5798,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -5823,7 +5817,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF339A98-313C-4685-8C24-07B1F47AF2C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED9E7EE0-1251-4B72-B763-C66F128BFD3B}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5840,7 +5834,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5960,13 +5954,13 @@
         <v>30424</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M4" s="7">
         <v>37</v>
@@ -5975,13 +5969,13 @@
         <v>30424</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6009,13 +6003,13 @@
         <v>1347</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>128</v>
+        <v>219</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -6024,13 +6018,13 @@
         <v>1347</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>128</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6058,13 +6052,13 @@
         <v>46034</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M6" s="7">
         <v>79</v>
@@ -6073,13 +6067,13 @@
         <v>46034</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6107,13 +6101,13 @@
         <v>300273</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M7" s="7">
         <v>538</v>
@@ -6122,13 +6116,13 @@
         <v>300273</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6156,10 +6150,10 @@
         <v>10359</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>228</v>
@@ -6171,10 +6165,10 @@
         <v>10359</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>228</v>
@@ -6507,7 +6501,7 @@
         <v>245</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>246</v>
+        <v>56</v>
       </c>
       <c r="M15" s="7">
         <v>44</v>
@@ -6522,7 +6516,7 @@
         <v>245</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>246</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6550,13 +6544,13 @@
         <v>207291</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="M16" s="7">
         <v>261</v>
@@ -6565,13 +6559,13 @@
         <v>207291</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6625,7 +6619,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -6650,10 +6644,10 @@
         <v>19247</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>160</v>
+        <v>249</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>14</v>
+        <v>167</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>250</v>
@@ -6665,10 +6659,10 @@
         <v>19247</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>160</v>
+        <v>249</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>14</v>
+        <v>167</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>250</v>
@@ -6699,13 +6693,13 @@
         <v>1521</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>251</v>
+        <v>107</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -6714,13 +6708,13 @@
         <v>1521</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>251</v>
+        <v>107</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6748,13 +6742,13 @@
         <v>5513</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="M20" s="7">
         <v>9</v>
@@ -6763,13 +6757,13 @@
         <v>5513</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6797,13 +6791,13 @@
         <v>347523</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M21" s="7">
         <v>521</v>
@@ -6812,13 +6806,13 @@
         <v>347523</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6846,13 +6840,13 @@
         <v>12373</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>260</v>
+        <v>187</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="M22" s="7">
         <v>17</v>
@@ -6861,13 +6855,13 @@
         <v>12373</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>260</v>
+        <v>187</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6895,13 +6889,13 @@
         <v>44542</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="M23" s="7">
         <v>59</v>
@@ -6910,13 +6904,13 @@
         <v>44542</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6995,13 +6989,13 @@
         <v>130305</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="M25" s="7">
         <v>164</v>
@@ -7010,13 +7004,13 @@
         <v>130305</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7044,13 +7038,13 @@
         <v>12868</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>254</v>
+        <v>110</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M26" s="7">
         <v>17</v>
@@ -7059,13 +7053,13 @@
         <v>12868</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>254</v>
+        <v>110</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7093,13 +7087,13 @@
         <v>74381</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>186</v>
+        <v>39</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="M27" s="7">
         <v>126</v>
@@ -7108,13 +7102,13 @@
         <v>74381</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>186</v>
+        <v>39</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7142,13 +7136,13 @@
         <v>1473743</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="M28" s="7">
         <v>2311</v>
@@ -7157,13 +7151,13 @@
         <v>1473743</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7191,13 +7185,13 @@
         <v>64691</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M29" s="7">
         <v>76</v>
@@ -7206,13 +7200,13 @@
         <v>64691</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7240,13 +7234,13 @@
         <v>339458</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="M30" s="7">
         <v>462</v>
@@ -7255,13 +7249,13 @@
         <v>339458</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7315,7 +7309,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P42B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P42B-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F1DC811-6459-4B0D-B6F4-410B772E73E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD5C0D31-2145-4B07-B955-B63DD403B911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A6A2E4A2-8E7C-4680-8F22-B6D447DCB053}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A79EFEE8-BF90-43FF-9FC2-E304C1D5A6CC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -83,796 +83,796 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>Para realizar detección precoz de cáncer de útero</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>Para realizar detección de cáncer de mama</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>Para revisiones periódicas</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>Para realizar orientación/planificación familiar</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>Por algún problema ginecológico</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el motivo de última consulta al ginecólogo en 2012 (Tasa respuesta: 38,79%)</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
     <t>2,52%</t>
   </si>
   <si>
-    <t>Para realizar detección precoz de cáncer de útero</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>Para realizar detección de cáncer de mama</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>Para revisiones periódicas</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>Para realizar orientación/planificación familiar</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>Por algún problema ginecológico</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,55%</t>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>Población según el motivo de última consulta al ginecólogo en 2016 (Tasa respuesta: 39,99%)</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
   </si>
   <si>
     <t>1,95%</t>
   </si>
   <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>70,3%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
   </si>
   <si>
     <t>3,2%</t>
   </si>
   <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el motivo de última consulta al ginecólogo en 2012 (Tasa respuesta: 38,79%)</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>Población según el motivo de última consulta al ginecólogo en 2023 (Tasa respuesta: 36,17%)</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>66,32%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>66,44%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
   </si>
   <si>
     <t>0,35%</t>
   </si>
   <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
   </si>
   <si>
     <t>0,61%</t>
   </si>
   <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>Población según el motivo de última consulta al ginecólogo en 2016 (Tasa respuesta: 39,99%)</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>67,27%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>Población según el motivo de última consulta al ginecólogo en 2023 (Tasa respuesta: 36,17%)</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
     <t>1,0%</t>
   </si>
   <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
     <t>3,55%</t>
   </si>
   <si>
-    <t>4,2%</t>
+    <t>4,25%</t>
   </si>
   <si>
     <t>70,33%</t>
   </si>
   <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
   </si>
   <si>
     <t>3,09%</t>
   </si>
   <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
   </si>
   <si>
     <t>16,2%</t>
   </si>
   <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
   </si>
 </sst>
 </file>
@@ -1284,7 +1284,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BED9DD1-74B0-49ED-8F6E-4C5EB5AB98E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{837C44A2-7FA2-4C5E-B463-D0AC1A2A531F}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1818,10 +1818,10 @@
         <v>38</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
@@ -1833,10 +1833,10 @@
         <v>38</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1864,13 +1864,13 @@
         <v>10672</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -1879,13 +1879,13 @@
         <v>10672</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1913,13 +1913,13 @@
         <v>253131</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M14" s="7">
         <v>245</v>
@@ -1928,13 +1928,13 @@
         <v>253131</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1962,13 +1962,13 @@
         <v>19668</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M15" s="7">
         <v>18</v>
@@ -1977,13 +1977,13 @@
         <v>19668</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2011,13 +2011,13 @@
         <v>46434</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M16" s="7">
         <v>45</v>
@@ -2026,13 +2026,13 @@
         <v>46434</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2086,7 +2086,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -2114,10 +2114,10 @@
         <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2160,13 +2160,13 @@
         <v>1151</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -2175,13 +2175,13 @@
         <v>1151</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2212,10 +2212,10 @@
         <v>13</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2227,10 +2227,10 @@
         <v>13</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2258,13 +2258,13 @@
         <v>97114</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>94</v>
@@ -2273,13 +2273,13 @@
         <v>97114</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2307,10 +2307,10 @@
         <v>10117</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>62</v>
@@ -2322,10 +2322,10 @@
         <v>10117</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>62</v>
@@ -2511,7 +2511,7 @@
         <v>70</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="M26" s="7">
         <v>14</v>
@@ -2526,7 +2526,7 @@
         <v>70</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2554,13 +2554,13 @@
         <v>30624</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M27" s="7">
         <v>31</v>
@@ -2569,13 +2569,13 @@
         <v>30624</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2603,13 +2603,13 @@
         <v>484313</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M28" s="7">
         <v>474</v>
@@ -2618,13 +2618,13 @@
         <v>484313</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2652,13 +2652,13 @@
         <v>30820</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M29" s="7">
         <v>27</v>
@@ -2667,13 +2667,13 @@
         <v>30820</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2701,13 +2701,13 @@
         <v>92098</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M30" s="7">
         <v>91</v>
@@ -2716,13 +2716,13 @@
         <v>92098</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2776,7 +2776,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2795,7 +2795,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89754099-6612-4DAB-BB2D-1751059B9A19}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC5C1518-63B4-49B1-B382-50F0CE388BAF}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2812,7 +2812,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2932,13 +2932,13 @@
         <v>15272</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
@@ -2947,13 +2947,13 @@
         <v>15272</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2981,7 +2981,7 @@
         <v>12647</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>89</v>
@@ -2996,7 +2996,7 @@
         <v>12647</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>89</v>
@@ -3476,10 +3476,10 @@
         <v>115</v>
       </c>
       <c r="K15" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M15" s="7">
         <v>103</v>
@@ -3491,10 +3491,10 @@
         <v>115</v>
       </c>
       <c r="P15" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3522,13 +3522,13 @@
         <v>219301</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M16" s="7">
         <v>207</v>
@@ -3537,13 +3537,13 @@
         <v>219301</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3597,7 +3597,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -3622,13 +3622,13 @@
         <v>3177</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="M18" s="7">
         <v>3</v>
@@ -3637,13 +3637,13 @@
         <v>3177</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3671,13 +3671,13 @@
         <v>1712</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -3686,13 +3686,13 @@
         <v>1712</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3720,13 +3720,13 @@
         <v>9852</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -3735,13 +3735,13 @@
         <v>9852</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3769,13 +3769,13 @@
         <v>305719</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K21" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M21" s="7">
         <v>273</v>
@@ -3784,13 +3784,13 @@
         <v>305719</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P21" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3818,13 +3818,13 @@
         <v>26111</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M22" s="7">
         <v>23</v>
@@ -3833,13 +3833,13 @@
         <v>26111</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3867,13 +3867,13 @@
         <v>60001</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M23" s="7">
         <v>55</v>
@@ -3882,13 +3882,13 @@
         <v>60001</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3967,13 +3967,13 @@
         <v>43730</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M25" s="7">
         <v>41</v>
@@ -3982,13 +3982,13 @@
         <v>43730</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4016,13 +4016,13 @@
         <v>24039</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M26" s="7">
         <v>23</v>
@@ -4031,13 +4031,13 @@
         <v>24039</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4065,13 +4065,13 @@
         <v>42969</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="M27" s="7">
         <v>39</v>
@@ -4080,13 +4080,13 @@
         <v>42969</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4114,13 +4114,13 @@
         <v>1974757</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M28" s="7">
         <v>1809</v>
@@ -4129,13 +4129,13 @@
         <v>1974757</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4163,13 +4163,13 @@
         <v>161686</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M29" s="7">
         <v>150</v>
@@ -4178,13 +4178,13 @@
         <v>161686</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4212,13 +4212,13 @@
         <v>490116</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M30" s="7">
         <v>459</v>
@@ -4227,13 +4227,13 @@
         <v>490116</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4287,7 +4287,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -4306,7 +4306,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92CE312F-1101-4BBD-A5ED-F669C89544FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF578DE0-1F76-4EBA-8BCC-8F24D323777B}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4323,7 +4323,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4443,13 +4443,13 @@
         <v>19095</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>105</v>
+        <v>152</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
@@ -4458,13 +4458,13 @@
         <v>19095</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>105</v>
+        <v>152</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4492,13 +4492,13 @@
         <v>3049</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -4507,13 +4507,13 @@
         <v>3049</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4541,13 +4541,13 @@
         <v>43925</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="M6" s="7">
         <v>39</v>
@@ -4556,13 +4556,13 @@
         <v>43925</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4590,13 +4590,13 @@
         <v>464221</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M7" s="7">
         <v>418</v>
@@ -4605,13 +4605,13 @@
         <v>464221</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4639,13 +4639,13 @@
         <v>27627</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>99</v>
+        <v>163</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M8" s="7">
         <v>27</v>
@@ -4654,13 +4654,13 @@
         <v>27627</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>99</v>
+        <v>163</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4688,13 +4688,13 @@
         <v>132185</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="M9" s="7">
         <v>123</v>
@@ -4703,13 +4703,13 @@
         <v>132185</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4788,13 +4788,13 @@
         <v>36940</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="M11" s="7">
         <v>36</v>
@@ -4803,13 +4803,13 @@
         <v>36940</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>79</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4837,13 +4837,13 @@
         <v>12033</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>124</v>
+        <v>173</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="M12" s="7">
         <v>12</v>
@@ -4852,13 +4852,13 @@
         <v>12033</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>124</v>
+        <v>173</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4886,13 +4886,13 @@
         <v>37303</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M13" s="7">
         <v>36</v>
@@ -4901,13 +4901,13 @@
         <v>37303</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4935,13 +4935,13 @@
         <v>1220516</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M14" s="7">
         <v>1161</v>
@@ -4950,13 +4950,13 @@
         <v>1220516</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4984,13 +4984,13 @@
         <v>96836</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M15" s="7">
         <v>97</v>
@@ -4999,13 +4999,13 @@
         <v>96836</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5033,13 +5033,13 @@
         <v>194382</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M16" s="7">
         <v>187</v>
@@ -5048,13 +5048,13 @@
         <v>194382</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5108,7 +5108,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -5133,7 +5133,7 @@
         <v>14274</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>39</v>
+        <v>186</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>187</v>
@@ -5148,7 +5148,7 @@
         <v>14274</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>39</v>
+        <v>186</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>187</v>
@@ -5185,10 +5185,10 @@
         <v>13</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -5200,10 +5200,10 @@
         <v>13</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5231,13 +5231,13 @@
         <v>7549</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -5246,13 +5246,13 @@
         <v>7549</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5484,7 +5484,7 @@
         <v>200</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>40</v>
+        <v>201</v>
       </c>
       <c r="M25" s="7">
         <v>67</v>
@@ -5499,7 +5499,7 @@
         <v>200</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>40</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5527,13 +5527,13 @@
         <v>15082</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>87</v>
+        <v>204</v>
       </c>
       <c r="M26" s="7">
         <v>15</v>
@@ -5542,13 +5542,13 @@
         <v>15082</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>87</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5576,13 +5576,13 @@
         <v>88776</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>73</v>
+        <v>205</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="M27" s="7">
         <v>81</v>
@@ -5591,13 +5591,13 @@
         <v>88776</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>73</v>
+        <v>205</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5625,13 +5625,13 @@
         <v>2071335</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="M28" s="7">
         <v>1948</v>
@@ -5640,13 +5640,13 @@
         <v>2071335</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5674,13 +5674,13 @@
         <v>147136</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M29" s="7">
         <v>146</v>
@@ -5689,13 +5689,13 @@
         <v>147136</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5723,13 +5723,13 @@
         <v>377453</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M30" s="7">
         <v>360</v>
@@ -5738,13 +5738,13 @@
         <v>377453</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5798,7 +5798,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -5817,7 +5817,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED9E7EE0-1251-4B72-B763-C66F128BFD3B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A23FB60B-EB67-4FC5-BAB8-8A7EB4A468B2}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5834,7 +5834,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5954,13 +5954,13 @@
         <v>30424</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>215</v>
+        <v>73</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M4" s="7">
         <v>37</v>
@@ -5969,13 +5969,13 @@
         <v>30424</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>215</v>
+        <v>73</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6003,13 +6003,13 @@
         <v>1347</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -6018,13 +6018,13 @@
         <v>1347</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6052,13 +6052,13 @@
         <v>46034</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M6" s="7">
         <v>79</v>
@@ -6067,13 +6067,13 @@
         <v>46034</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6101,13 +6101,13 @@
         <v>300273</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M7" s="7">
         <v>538</v>
@@ -6116,13 +6116,13 @@
         <v>300273</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6150,13 +6150,13 @@
         <v>10359</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>227</v>
+        <v>68</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M8" s="7">
         <v>15</v>
@@ -6165,13 +6165,13 @@
         <v>10359</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>227</v>
+        <v>68</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6199,13 +6199,13 @@
         <v>87625</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M9" s="7">
         <v>142</v>
@@ -6214,13 +6214,13 @@
         <v>87625</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6299,13 +6299,13 @@
         <v>80634</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>234</v>
+        <v>61</v>
       </c>
       <c r="M11" s="7">
         <v>105</v>
@@ -6314,13 +6314,13 @@
         <v>80634</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>234</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6452,7 +6452,7 @@
         <v>242</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>243</v>
+        <v>143</v>
       </c>
       <c r="M14" s="7">
         <v>1252</v>
@@ -6467,7 +6467,7 @@
         <v>242</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>243</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6495,13 +6495,13 @@
         <v>41960</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M15" s="7">
         <v>44</v>
@@ -6510,13 +6510,13 @@
         <v>41960</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6619,7 +6619,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -6647,10 +6647,10 @@
         <v>249</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>167</v>
+        <v>250</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M18" s="7">
         <v>22</v>
@@ -6662,10 +6662,10 @@
         <v>249</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>167</v>
+        <v>250</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6693,13 +6693,13 @@
         <v>1521</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>252</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -6708,13 +6708,13 @@
         <v>1521</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>107</v>
+        <v>252</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6742,13 +6742,13 @@
         <v>5513</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>110</v>
+        <v>254</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>253</v>
+        <v>199</v>
       </c>
       <c r="M20" s="7">
         <v>9</v>
@@ -6757,13 +6757,13 @@
         <v>5513</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>110</v>
+        <v>254</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>253</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6791,10 +6791,10 @@
         <v>347523</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>255</v>
+        <v>210</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>256</v>
@@ -6806,10 +6806,10 @@
         <v>347523</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>255</v>
+        <v>210</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>256</v>
@@ -6843,7 +6843,7 @@
         <v>257</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>258</v>
@@ -6858,7 +6858,7 @@
         <v>257</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>258</v>
@@ -7038,10 +7038,10 @@
         <v>12868</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>110</v>
+        <v>265</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>265</v>
+        <v>107</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>266</v>
@@ -7053,10 +7053,10 @@
         <v>12868</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>110</v>
+        <v>265</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>265</v>
+        <v>107</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>266</v>
@@ -7090,7 +7090,7 @@
         <v>267</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>39</v>
+        <v>194</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>268</v>
@@ -7105,7 +7105,7 @@
         <v>267</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>39</v>
+        <v>194</v>
       </c>
       <c r="Q27" s="7" t="s">
         <v>268</v>
@@ -7309,7 +7309,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P42B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P42B-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD5C0D31-2145-4B07-B955-B63DD403B911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8392E2E8-D94E-4A4D-9AD7-CFF63E0937D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A79EFEE8-BF90-43FF-9FC2-E304C1D5A6CC}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A76F047E-1975-410E-9BB5-1901A5FEA2B1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="279">
   <si>
     <t>Población según el motivo de última consulta al ginecólogo en 2007 (Tasa respuesta: 9,83%)</t>
   </si>
@@ -695,184 +695,187 @@
     <t>Población según el motivo de última consulta al ginecólogo en 2023 (Tasa respuesta: 36,17%)</t>
   </si>
   <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>66,32%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
   </si>
   <si>
     <t>15,67%</t>
   </si>
   <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
   </si>
   <si>
     <t>4,47%</t>
   </si>
   <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
   </si>
   <si>
     <t>0,35%</t>
   </si>
   <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
   </si>
 </sst>
 </file>
@@ -1284,7 +1287,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{837C44A2-7FA2-4C5E-B463-D0AC1A2A531F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F280EA2B-E73A-4B44-B8A2-D58C7CE35685}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2795,7 +2798,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC5C1518-63B4-49B1-B382-50F0CE388BAF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E15B74DD-30AF-4D53-815C-9C6E63ACB23A}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3421,7 +3424,7 @@
         <v>899</v>
       </c>
       <c r="I14" s="7">
-        <v>987348</v>
+        <v>987349</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>112</v>
@@ -3436,7 +3439,7 @@
         <v>899</v>
       </c>
       <c r="N14" s="7">
-        <v>987348</v>
+        <v>987349</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>112</v>
@@ -3568,7 +3571,7 @@
         <v>1256</v>
       </c>
       <c r="I17" s="7">
-        <v>1365126</v>
+        <v>1365127</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>34</v>
@@ -3583,7 +3586,7 @@
         <v>1256</v>
       </c>
       <c r="N17" s="7">
-        <v>1365126</v>
+        <v>1365127</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>34</v>
@@ -4306,7 +4309,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF578DE0-1F76-4EBA-8BCC-8F24D323777B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C680D8-729C-44D5-BB99-624F252B77C9}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5424,7 +5427,7 @@
         <v>461</v>
       </c>
       <c r="I24" s="7">
-        <v>481980</v>
+        <v>481979</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>34</v>
@@ -5439,7 +5442,7 @@
         <v>461</v>
       </c>
       <c r="N24" s="7">
-        <v>481980</v>
+        <v>481979</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>34</v>
@@ -5817,7 +5820,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A23FB60B-EB67-4FC5-BAB8-8A7EB4A468B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1EE43EF-BA6E-4DE8-8B86-ADF6D8BC4936}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5951,31 +5954,31 @@
         <v>37</v>
       </c>
       <c r="I4" s="7">
-        <v>30424</v>
+        <v>26641</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M4" s="7">
         <v>37</v>
       </c>
       <c r="N4" s="7">
-        <v>30424</v>
+        <v>26641</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6000,31 +6003,31 @@
         <v>2</v>
       </c>
       <c r="I5" s="7">
-        <v>1347</v>
+        <v>1157</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
       </c>
       <c r="N5" s="7">
-        <v>1347</v>
+        <v>1157</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6049,31 +6052,31 @@
         <v>79</v>
       </c>
       <c r="I6" s="7">
-        <v>46034</v>
+        <v>39718</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M6" s="7">
         <v>79</v>
       </c>
       <c r="N6" s="7">
-        <v>46034</v>
+        <v>39718</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6098,31 +6101,31 @@
         <v>538</v>
       </c>
       <c r="I7" s="7">
-        <v>300273</v>
+        <v>272562</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M7" s="7">
         <v>538</v>
       </c>
       <c r="N7" s="7">
-        <v>300273</v>
+        <v>272562</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6147,31 +6150,31 @@
         <v>15</v>
       </c>
       <c r="I8" s="7">
-        <v>10359</v>
+        <v>9217</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>68</v>
+        <v>230</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M8" s="7">
         <v>15</v>
       </c>
       <c r="N8" s="7">
-        <v>10359</v>
+        <v>9217</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>68</v>
+        <v>230</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6196,31 +6199,31 @@
         <v>142</v>
       </c>
       <c r="I9" s="7">
-        <v>87625</v>
+        <v>78055</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M9" s="7">
         <v>142</v>
       </c>
       <c r="N9" s="7">
-        <v>87625</v>
+        <v>78055</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6245,7 +6248,7 @@
         <v>813</v>
       </c>
       <c r="I10" s="7">
-        <v>476062</v>
+        <v>427350</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>34</v>
@@ -6260,7 +6263,7 @@
         <v>813</v>
       </c>
       <c r="N10" s="7">
-        <v>476062</v>
+        <v>427350</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>34</v>
@@ -6296,31 +6299,31 @@
         <v>105</v>
       </c>
       <c r="I11" s="7">
-        <v>80634</v>
+        <v>75108</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>61</v>
+        <v>237</v>
       </c>
       <c r="M11" s="7">
         <v>105</v>
       </c>
       <c r="N11" s="7">
-        <v>80634</v>
+        <v>75108</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>61</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6345,31 +6348,31 @@
         <v>13</v>
       </c>
       <c r="I12" s="7">
-        <v>10000</v>
+        <v>9297</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>236</v>
+        <v>155</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M12" s="7">
         <v>13</v>
       </c>
       <c r="N12" s="7">
-        <v>10000</v>
+        <v>9297</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>236</v>
+        <v>155</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6394,31 +6397,31 @@
         <v>38</v>
       </c>
       <c r="I13" s="7">
-        <v>22834</v>
+        <v>20312</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>238</v>
+        <v>175</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>240</v>
+        <v>125</v>
       </c>
       <c r="M13" s="7">
         <v>38</v>
       </c>
       <c r="N13" s="7">
-        <v>22834</v>
+        <v>20312</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>238</v>
+        <v>175</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>240</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6443,7 +6446,7 @@
         <v>1252</v>
       </c>
       <c r="I14" s="7">
-        <v>825947</v>
+        <v>818964</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>241</v>
@@ -6452,13 +6455,13 @@
         <v>242</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="M14" s="7">
         <v>1252</v>
       </c>
       <c r="N14" s="7">
-        <v>825947</v>
+        <v>818964</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>241</v>
@@ -6467,7 +6470,7 @@
         <v>242</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6492,31 +6495,31 @@
         <v>44</v>
       </c>
       <c r="I15" s="7">
-        <v>41960</v>
+        <v>37350</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M15" s="7">
         <v>44</v>
       </c>
       <c r="N15" s="7">
-        <v>41960</v>
+        <v>37350</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6541,31 +6544,31 @@
         <v>261</v>
       </c>
       <c r="I16" s="7">
-        <v>207291</v>
+        <v>211145</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="M16" s="7">
         <v>261</v>
       </c>
       <c r="N16" s="7">
-        <v>207291</v>
+        <v>211145</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6590,7 +6593,7 @@
         <v>1713</v>
       </c>
       <c r="I17" s="7">
-        <v>1188665</v>
+        <v>1172175</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>34</v>
@@ -6605,7 +6608,7 @@
         <v>1713</v>
       </c>
       <c r="N17" s="7">
-        <v>1188665</v>
+        <v>1172175</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>34</v>
@@ -6641,31 +6644,31 @@
         <v>22</v>
       </c>
       <c r="I18" s="7">
-        <v>19247</v>
+        <v>17931</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M18" s="7">
         <v>22</v>
       </c>
       <c r="N18" s="7">
-        <v>19247</v>
+        <v>17931</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6690,31 +6693,31 @@
         <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>1521</v>
+        <v>1373</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
       </c>
       <c r="N19" s="7">
-        <v>1521</v>
+        <v>1373</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6739,13 +6742,13 @@
         <v>9</v>
       </c>
       <c r="I20" s="7">
-        <v>5513</v>
+        <v>4983</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>199</v>
@@ -6754,13 +6757,13 @@
         <v>9</v>
       </c>
       <c r="N20" s="7">
-        <v>5513</v>
+        <v>4983</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>199</v>
@@ -6788,13 +6791,13 @@
         <v>521</v>
       </c>
       <c r="I21" s="7">
-        <v>347523</v>
+        <v>323898</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>256</v>
@@ -6803,13 +6806,13 @@
         <v>521</v>
       </c>
       <c r="N21" s="7">
-        <v>347523</v>
+        <v>323898</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>256</v>
@@ -6837,31 +6840,31 @@
         <v>17</v>
       </c>
       <c r="I22" s="7">
-        <v>12373</v>
+        <v>11132</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>257</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>170</v>
+        <v>258</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M22" s="7">
         <v>17</v>
       </c>
       <c r="N22" s="7">
-        <v>12373</v>
+        <v>11132</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>257</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>170</v>
+        <v>258</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6886,10 +6889,10 @@
         <v>59</v>
       </c>
       <c r="I23" s="7">
-        <v>44542</v>
+        <v>40683</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>259</v>
+        <v>51</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>260</v>
@@ -6901,10 +6904,10 @@
         <v>59</v>
       </c>
       <c r="N23" s="7">
-        <v>44542</v>
+        <v>40683</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>259</v>
+        <v>51</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>260</v>
@@ -6935,7 +6938,7 @@
         <v>630</v>
       </c>
       <c r="I24" s="7">
-        <v>430719</v>
+        <v>399999</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>34</v>
@@ -6950,7 +6953,7 @@
         <v>630</v>
       </c>
       <c r="N24" s="7">
-        <v>430719</v>
+        <v>399999</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>34</v>
@@ -6986,7 +6989,7 @@
         <v>164</v>
       </c>
       <c r="I25" s="7">
-        <v>130305</v>
+        <v>119680</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>262</v>
@@ -7001,7 +7004,7 @@
         <v>164</v>
       </c>
       <c r="N25" s="7">
-        <v>130305</v>
+        <v>119680</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>262</v>
@@ -7035,31 +7038,31 @@
         <v>17</v>
       </c>
       <c r="I26" s="7">
-        <v>12868</v>
+        <v>11827</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>265</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>107</v>
+        <v>266</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M26" s="7">
         <v>17</v>
       </c>
       <c r="N26" s="7">
-        <v>12868</v>
+        <v>11827</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>265</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>107</v>
+        <v>266</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7084,31 +7087,31 @@
         <v>126</v>
       </c>
       <c r="I27" s="7">
-        <v>74381</v>
+        <v>65013</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>267</v>
+        <v>176</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>194</v>
+        <v>268</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M27" s="7">
         <v>126</v>
       </c>
       <c r="N27" s="7">
-        <v>74381</v>
+        <v>65013</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>267</v>
+        <v>176</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>194</v>
+        <v>268</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7133,31 +7136,31 @@
         <v>2311</v>
       </c>
       <c r="I28" s="7">
-        <v>1473743</v>
+        <v>1415424</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M28" s="7">
         <v>2311</v>
       </c>
       <c r="N28" s="7">
-        <v>1473743</v>
+        <v>1415424</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7182,31 +7185,31 @@
         <v>76</v>
       </c>
       <c r="I29" s="7">
-        <v>64691</v>
+        <v>57698</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M29" s="7">
         <v>76</v>
       </c>
       <c r="N29" s="7">
-        <v>64691</v>
+        <v>57698</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7231,31 +7234,31 @@
         <v>462</v>
       </c>
       <c r="I30" s="7">
-        <v>339458</v>
+        <v>329882</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M30" s="7">
         <v>462</v>
       </c>
       <c r="N30" s="7">
-        <v>339458</v>
+        <v>329882</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7280,7 +7283,7 @@
         <v>3156</v>
       </c>
       <c r="I31" s="7">
-        <v>2095446</v>
+        <v>1999524</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>34</v>
@@ -7295,7 +7298,7 @@
         <v>3156</v>
       </c>
       <c r="N31" s="7">
-        <v>2095446</v>
+        <v>1999524</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>34</v>
